--- a/src/dh20_ids.xlsx
+++ b/src/dh20_ids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Notebooks\NBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Streamlit\DH_20_23-24\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F10F36-AAAD-4BAE-9411-F9B03BBC4757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C5805-1096-45FA-8458-7B1255C058D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2655" windowWidth="19665" windowHeight="12675" xr2:uid="{91AF52B2-791B-47B1-AE02-72E378F09C81}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91AF52B2-791B-47B1-AE02-72E378F09C81}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>player_nickname</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>po</t>
+  </si>
+  <si>
+    <t>dh20</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4D1252-84E8-48DF-98A3-2BA34985CD4A}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +592,7 @@
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +602,11 @@
       <c r="C1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -610,8 +616,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -621,8 +630,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -632,8 +644,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -643,8 +658,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -654,8 +672,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -665,8 +686,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -676,8 +700,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -687,8 +714,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -698,8 +728,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -709,8 +742,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -720,8 +756,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -731,8 +770,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -742,8 +784,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -753,8 +798,11 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -764,8 +812,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -775,8 +826,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -786,8 +840,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -797,8 +854,11 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -808,8 +868,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -819,8 +882,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -830,8 +896,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -841,8 +910,11 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -852,8 +924,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -863,8 +938,11 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -874,8 +952,11 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -885,8 +966,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -896,8 +980,11 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -907,8 +994,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -918,8 +1008,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -929,8 +1022,11 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -940,8 +1036,11 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -951,8 +1050,11 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -962,8 +1064,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -973,8 +1078,11 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -984,8 +1092,11 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -995,8 +1106,11 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1006,8 +1120,11 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1017,8 +1134,11 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1028,8 +1148,11 @@
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1039,8 +1162,11 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1050,8 +1176,11 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1061,8 +1190,11 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1072,8 +1204,11 @@
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1083,8 +1218,11 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1094,8 +1232,11 @@
       <c r="C46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1105,8 +1246,11 @@
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1116,8 +1260,11 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1127,8 +1274,11 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1138,8 +1288,11 @@
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1149,8 +1302,11 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1160,8 +1316,11 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1171,8 +1330,11 @@
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1182,8 +1344,11 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1192,6 +1357,9 @@
       </c>
       <c r="C55">
         <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
